--- a/biology/Botanique/Capparis_ovata/Capparis_ovata.xlsx
+++ b/biology/Botanique/Capparis_ovata/Capparis_ovata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capparis ovata (câprier ovale) est une espèce de plantes dicotylédones de la famille des Capparaceae. 
 Cet arbrisseau épineux, indigène dans certaines régions du bassin méditerranéen, fournit des boutons floraux qui peuvent être préparés sous forme de câpres. On l'utilise aussi pour lutter contre l'érosion des sols.
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Capparis ovata est un arbrisseau buissonnant et épineux, à port prostré, qui peut atteindre 1 m de haut. C'est une espèce adaptée aux sols pauvres, où l'eau et les nutriments sont les principaux facteurs limitants. Son système racinaire, très profond, peut atteindre 40 m de profondeur.
-Les tiges courtes portent des branches grêles et longues, qui peuvent couvrir une surface allant jusqu'à 15 m2[2].
+Les tiges courtes portent des branches grêles et longues, qui peuvent couvrir une surface allant jusqu'à 15 m2.
 Les feuilles alternes, à limbe de forme ovale aigüe permettent de distinguer Capparis ovata de Caparis spinosa, aux feuilles plus arrondies. Elles sont munies à la base du pétiole de stipules épineuses et crochues.
 Les fleurs axillaires, grandes, solitaires, ont un calice à quatre sépales coriaces et une corolle à quatre pétales d'un blanc rosé, obovales, dont les deux supérieurs sont soudés à la base. Les étamines très nombreuses, dépassant de la corolle, ont des anthères violettes. 
-Les fruits sont des capsules charnues, bacciformes, ovoïdes, déhiscentes à maturité[3].
+Les fruits sont des capsules charnues, bacciformes, ovoïdes, déhiscentes à maturité.
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capparis ovata est une espèce poussant dans les zones arides du bassin méditerranéen, notamment Afrique du Nord (Algérie, et Maroc). sa présence parfois signalée en Espagne et en Sicile est sujette à caution à cause de confusions avec Capparis sicula. On trouve la variété Capparis ovata var herbacea (Willd.) Zohary plus à l'est en Turquie, dans la région du Caucase (Arménie, Azerbaïdjan, Géorgie) et en Asie centrale (Turkménistan)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capparis ovata est une espèce poussant dans les zones arides du bassin méditerranéen, notamment Afrique du Nord (Algérie, et Maroc). sa présence parfois signalée en Espagne et en Sicile est sujette à caution à cause de confusions avec Capparis sicula. On trouve la variété Capparis ovata var herbacea (Willd.) Zohary plus à l'est en Turquie, dans la région du Caucase (Arménie, Azerbaïdjan, Géorgie) et en Asie centrale (Turkménistan).
 C'est une plante xérophyte, tolérante à la sécheresse, qui pousse dans des zones où la pluviométrie annuelle est d'environ 350 mm.
-En Turquie, l'habitat originel de Capparis ovata s'étend de 250 à 1600 m d'altitude (alors que Capparis spinosa ne se trouve qu'entre 200 et 300 m d'altitude)[2].
+En Turquie, l'habitat originel de Capparis ovata s'étend de 250 à 1600 m d'altitude (alors que Capparis spinosa ne se trouve qu'entre 200 et 300 m d'altitude).
 </t>
         </is>
       </c>
@@ -580,12 +596,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les racines, les fruits, les fleurs et les boutons floraux non éclos peuvent être récoltés pour diverses utilisations.
-Les boutons floraux peuvent être préparés en câpres à l'instar de ceux du câprier commun. Les fruits ont aussi un usage alimentaire, notamment en Turquie[4].
-Les racines, les feuilles et les fruits, à propriétés anti-inflammatoires, sont employés en médecine populaire, notamment en Orient. Les fruits contre les refroidissements et les maux d'estomacs, les feuilles contre les lumbagos et en usage vétérinaire contre la gale des chameaux, les racines contre la blennorrhagie[4]. 
-La plante est également plantée dans plusieurs pays, associée à d'autres plantes, pour lutter contre l'érosion dans des zones rocheuses et accidentées[2].
+Les boutons floraux peuvent être préparés en câpres à l'instar de ceux du câprier commun. Les fruits ont aussi un usage alimentaire, notamment en Turquie.
+Les racines, les feuilles et les fruits, à propriétés anti-inflammatoires, sont employés en médecine populaire, notamment en Orient. Les fruits contre les refroidissements et les maux d'estomacs, les feuilles contre les lumbagos et en usage vétérinaire contre la gale des chameaux, les racines contre la blennorrhagie. 
+La plante est également plantée dans plusieurs pays, associée à d'autres plantes, pour lutter contre l'érosion dans des zones rocheuses et accidentées.
 </t>
         </is>
       </c>
@@ -616,8 +634,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon CJB[5] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon CJB :
 Capparis spinosa var. ovata (Desf.) Batt. (1888)
 Capparis ovata Desf. subsp. ovata
 Capparis spinosa f. coriacea Coss. (1864)
@@ -627,11 +650,46 @@
 Capparis sicula var. kruegeriana Pamp. (1926)
 Capparis spinosa var. kruegeriana (Pamp.) Jafri (1977)
 Capparis spinosa var. aegyptia auct. Alg. Tun. non Lam.
-Liste des sous-espèces et variétés
-Selon Catalogue of Life                                   (7 décembre 2014)[6] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Capparis_ovata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capparis_ovata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 décembre 2014) :
 Capparis ovata subsp. myrtifolia Inocencio, D. Rivera, Obón &amp; Alcaraz
 Capparis ovata subsp. ovata
-Selon Tropicos                                           (7 décembre 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 décembre 2014) (Attention liste brute contenant possiblement des synonymes) :
 Capparis ovata subsp. myrtifolia Inocencio, D. Rivera, Obón &amp; Alcaraz
 Capparis ovata subsp. sicula (Vieill.) Pugnaire
 Capparis ovata var. canescens (Coss.) Heywood
